--- a/data/trans_orig/P6606-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6606-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>147913</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>130694</v>
+        <v>128282</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169917</v>
+        <v>167503</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3850407553400512</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3402151862105454</v>
+        <v>0.333936949466514</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4423200172432315</v>
+        <v>0.4360350375232289</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>93</v>
@@ -765,19 +765,19 @@
         <v>95386</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83780</v>
+        <v>82895</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107362</v>
+        <v>107644</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6125895278553006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5380542530910524</v>
+        <v>0.5323700399600544</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6895041612584102</v>
+        <v>0.6913166444036833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>236</v>
@@ -786,19 +786,19 @@
         <v>243299</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>221012</v>
+        <v>221241</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>266742</v>
+        <v>265907</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4506717719322905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4093885733428198</v>
+        <v>0.4098121499656903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4940957134956134</v>
+        <v>0.4925497461876159</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>118428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98790</v>
+        <v>99478</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136069</v>
+        <v>136155</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3082855439557844</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2571638834334042</v>
+        <v>0.2589565759713448</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3542075640023579</v>
+        <v>0.3544322418429781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -836,19 +836,19 @@
         <v>47895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36917</v>
+        <v>37062</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>59848</v>
+        <v>60866</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3075925969661563</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.237091601035273</v>
+        <v>0.2380177197830524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3843569804007466</v>
+        <v>0.3908944190184755</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>157</v>
@@ -857,19 +857,19 @@
         <v>166323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>146108</v>
+        <v>145169</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>188736</v>
+        <v>187903</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3080856799228076</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2706402211817843</v>
+        <v>0.2689020741779259</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3496016763489061</v>
+        <v>0.3480589301503653</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>101639</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83945</v>
+        <v>83083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121337</v>
+        <v>119542</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2645803190373106</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2185207411939344</v>
+        <v>0.2162782442686879</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3158572080399049</v>
+        <v>0.3111869982954586</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -907,19 +907,19 @@
         <v>9553</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4882</v>
+        <v>4824</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16262</v>
+        <v>17200</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06134862669783112</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03135273892528851</v>
+        <v>0.03098085296809602</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1044381500765868</v>
+        <v>0.1104630776472849</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>106</v>
@@ -928,19 +928,19 @@
         <v>111191</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92558</v>
+        <v>92851</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131346</v>
+        <v>131326</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2059629842806163</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1714485612111474</v>
+        <v>0.1719908800257053</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2432965299144671</v>
+        <v>0.2432598723600787</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>16170</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9119</v>
+        <v>9384</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25032</v>
+        <v>26345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04209338166685379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02373858942861543</v>
+        <v>0.02442777017993113</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06516116609179523</v>
+        <v>0.06857928069914582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -978,19 +978,19 @@
         <v>2876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8235</v>
+        <v>7848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01846924848071194</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005482126745205706</v>
+        <v>0.005410160135104066</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05288460955656835</v>
+        <v>0.05039963985819011</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -999,19 +999,19 @@
         <v>19046</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12195</v>
+        <v>11497</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28650</v>
+        <v>28141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03527956386428559</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02258946263276347</v>
+        <v>0.02129612867442048</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05306980493110141</v>
+        <v>0.05212581338493211</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>266000</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>243379</v>
+        <v>241232</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>292416</v>
+        <v>290599</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4767706409878843</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4362263414234825</v>
+        <v>0.4323770335137992</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5241177786718376</v>
+        <v>0.5208613185207822</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>194</v>
@@ -1124,19 +1124,19 @@
         <v>209825</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>195657</v>
+        <v>195631</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>223209</v>
+        <v>222487</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.7896497850253013</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.7363287550748299</v>
+        <v>0.736230819271908</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.8400194459020114</v>
+        <v>0.837302877961538</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>434</v>
@@ -1145,19 +1145,19 @@
         <v>475825</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>447499</v>
+        <v>446860</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>505078</v>
+        <v>504589</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5777104515201876</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5433196768034591</v>
+        <v>0.5425429736154374</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6132273415421134</v>
+        <v>0.6126333126589337</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>126627</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108181</v>
+        <v>107206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>148581</v>
+        <v>149568</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2269625638265231</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1939014386606883</v>
+        <v>0.1921527309631091</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2663132688176171</v>
+        <v>0.2680810006554353</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -1195,19 +1195,19 @@
         <v>41784</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30992</v>
+        <v>31440</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55357</v>
+        <v>56039</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1572473156291472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1166330584963811</v>
+        <v>0.1183190247521993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2083272979162731</v>
+        <v>0.2108962906272716</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>156</v>
@@ -1216,19 +1216,19 @@
         <v>168411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>145696</v>
+        <v>145337</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>192233</v>
+        <v>195072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2044713109630402</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.176893457185359</v>
+        <v>0.1764573952749869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2333952182145623</v>
+        <v>0.2368413084343629</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>125750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106145</v>
+        <v>104419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>147237</v>
+        <v>146078</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2253902591323184</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1902507102620312</v>
+        <v>0.1871570120622191</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2639034429439143</v>
+        <v>0.2618259578944271</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -1266,19 +1266,19 @@
         <v>5352</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2104</v>
+        <v>2070</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11615</v>
+        <v>12262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0201407537531206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.007919987290722472</v>
+        <v>0.007788771315278235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04371292059788967</v>
+        <v>0.04614506548118155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>119</v>
@@ -1287,19 +1287,19 @@
         <v>131101</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109641</v>
+        <v>110111</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>152967</v>
+        <v>154658</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1591734895596313</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1331183198250027</v>
+        <v>0.1336882326037719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.185720638447045</v>
+        <v>0.1877734805262174</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>39543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>27807</v>
+        <v>28739</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>54757</v>
+        <v>54467</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07087653605327421</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04984109548396819</v>
+        <v>0.05151049093107827</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09814507083299676</v>
+        <v>0.09762576720016491</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1337,19 +1337,19 @@
         <v>8759</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4301</v>
+        <v>4200</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16390</v>
+        <v>16297</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03296214559243092</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01618746760315416</v>
+        <v>0.01580705444678248</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06168055943558113</v>
+        <v>0.06133116190503125</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -1358,19 +1358,19 @@
         <v>48302</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35376</v>
+        <v>36918</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64234</v>
+        <v>65423</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05864474795714079</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04295081571319946</v>
+        <v>0.04482245255472233</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07798823819672222</v>
+        <v>0.07943222045421049</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>194910</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>174200</v>
+        <v>173494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>215071</v>
+        <v>215765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4814489596029387</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.43029327960909</v>
+        <v>0.4285482579959567</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5312484638223078</v>
+        <v>0.5329614639281357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>174</v>
@@ -1483,19 +1483,19 @@
         <v>173774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>161386</v>
+        <v>160897</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>184112</v>
+        <v>183888</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8237845127542704</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7650577337160271</v>
+        <v>0.7627392874287137</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8727906680011239</v>
+        <v>0.871731939251457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>352</v>
@@ -1504,19 +1504,19 @@
         <v>368684</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>344049</v>
+        <v>342199</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>392445</v>
+        <v>392195</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5987204586464021</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.558713570345863</v>
+        <v>0.5557100879302073</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6373061516044656</v>
+        <v>0.6368996401560344</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>103441</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>86057</v>
+        <v>84665</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>122809</v>
+        <v>122772</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.255510694438387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.212569318406946</v>
+        <v>0.2091311604261362</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3033514559303016</v>
+        <v>0.3032602445657047</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>28</v>
@@ -1554,19 +1554,19 @@
         <v>28851</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19887</v>
+        <v>19877</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>40267</v>
+        <v>39936</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.136771084722961</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09427441552182994</v>
+        <v>0.09422721897890239</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1908877680847366</v>
+        <v>0.1893177628986489</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>122</v>
@@ -1575,19 +1575,19 @@
         <v>132293</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>111418</v>
+        <v>112720</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>153390</v>
+        <v>154389</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2148348957987749</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1809362725440991</v>
+        <v>0.1830505143616943</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2490953158146468</v>
+        <v>0.2507184469942556</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>88260</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>71661</v>
+        <v>71351</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104912</v>
+        <v>106351</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2180123725733018</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1770091820589443</v>
+        <v>0.1762448337498488</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2591446218127763</v>
+        <v>0.2626973708844075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1625,19 +1625,19 @@
         <v>4886</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1880</v>
+        <v>1815</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11135</v>
+        <v>10653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02316242179601555</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008914315602222524</v>
+        <v>0.008603584615112852</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05278817715997638</v>
+        <v>0.05050097064363962</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -1646,19 +1646,19 @@
         <v>93146</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77390</v>
+        <v>76062</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>113170</v>
+        <v>113145</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1512639860681576</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1256762924817486</v>
+        <v>0.1235206831307489</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1837810685026259</v>
+        <v>0.1837406396013005</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>18229</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11739</v>
+        <v>11156</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28302</v>
+        <v>27047</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04502797338537256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02899701104360956</v>
+        <v>0.02755626628373774</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06990942046265218</v>
+        <v>0.06680858656862972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1696,19 +1696,19 @@
         <v>3435</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9808</v>
+        <v>9679</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01628198072675303</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004420401926552545</v>
+        <v>0.004512278646293179</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04649346401561601</v>
+        <v>0.0458842034868046</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1717,19 +1717,19 @@
         <v>21664</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12880</v>
+        <v>14280</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>32289</v>
+        <v>32345</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03518065948666543</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02091697866451525</v>
+        <v>0.02318994451620893</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05243533700162147</v>
+        <v>0.05252601663293655</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>324020</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>299672</v>
+        <v>300567</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>345462</v>
+        <v>346304</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5864026455659682</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5423386527549485</v>
+        <v>0.5439577609851541</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6252086613137153</v>
+        <v>0.6267316207481476</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>301</v>
@@ -1842,19 +1842,19 @@
         <v>320379</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>304837</v>
+        <v>304077</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>335131</v>
+        <v>334795</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8314152355653962</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7910825175436669</v>
+        <v>0.7891081860705198</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8696982243044563</v>
+        <v>0.8688257475670643</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>635</v>
@@ -1863,19 +1863,19 @@
         <v>644399</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>614086</v>
+        <v>615282</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>672054</v>
+        <v>669070</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.687067891352494</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6547475030257072</v>
+        <v>0.6560233103450996</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7165538921101554</v>
+        <v>0.7133722184966564</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>86547</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71261</v>
+        <v>69358</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103865</v>
+        <v>104301</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.156630112953825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1289664722178895</v>
+        <v>0.1255219989908143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1879725543186222</v>
+        <v>0.1887616565477069</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>38</v>
@@ -1913,19 +1913,19 @@
         <v>39373</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>28094</v>
+        <v>28616</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>52079</v>
+        <v>52367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1021771219062369</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07290551875682764</v>
+        <v>0.07426221695577749</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1351488202575129</v>
+        <v>0.1358975988000315</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>129</v>
@@ -1934,19 +1934,19 @@
         <v>125920</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>106552</v>
+        <v>107307</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>146775</v>
+        <v>147910</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1342576963868651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1136073466004902</v>
+        <v>0.1144119349979579</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1564933737180053</v>
+        <v>0.1577043125717962</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>91736</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>75456</v>
+        <v>77272</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>110159</v>
+        <v>109967</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1660206794015674</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.136558925741436</v>
+        <v>0.1398441473700134</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1993635387003961</v>
+        <v>0.1990151682286406</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -1984,19 +1984,19 @@
         <v>19488</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>11931</v>
+        <v>11762</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30327</v>
+        <v>30368</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05057392140447354</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03096217948989541</v>
+        <v>0.03052235210505534</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07870130919051227</v>
+        <v>0.07880881430336753</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -2005,19 +2005,19 @@
         <v>111224</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>92200</v>
+        <v>92236</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>133961</v>
+        <v>131446</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1185885198171878</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09830521600000633</v>
+        <v>0.09834332741269021</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1428311568276168</v>
+        <v>0.1401495001344331</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>50253</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38275</v>
+        <v>38436</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65156</v>
+        <v>65926</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09094656207863948</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0692686288147993</v>
+        <v>0.06956020188289884</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1179176877035868</v>
+        <v>0.119311634654544</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2055,19 +2055,19 @@
         <v>6101</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2984</v>
+        <v>2060</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13322</v>
+        <v>12854</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01583372112389342</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007744559010379691</v>
+        <v>0.005346571811676024</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03457145021601486</v>
+        <v>0.0333581839507795</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -2076,19 +2076,19 @@
         <v>56354</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42628</v>
+        <v>42066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>72230</v>
+        <v>71528</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06008589244345303</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04545087951283331</v>
+        <v>0.04485154009543402</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07701227350266449</v>
+        <v>0.07626386181853138</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>932843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>889208</v>
+        <v>883282</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>977765</v>
+        <v>974814</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4911081790632111</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4681357686831525</v>
+        <v>0.4650157170662292</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5147579692474554</v>
+        <v>0.513204314181873</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>762</v>
@@ -2201,19 +2201,19 @@
         <v>799364</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>771157</v>
+        <v>769916</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>825017</v>
+        <v>823446</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7854488059337985</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7577334577864778</v>
+        <v>0.756514086540484</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8106558293269777</v>
+        <v>0.8091120257026916</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1657</v>
@@ -2222,19 +2222,19 @@
         <v>1732207</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1680330</v>
+        <v>1672835</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1784149</v>
+        <v>1783134</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5937946967198448</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5760113312208921</v>
+        <v>0.5734421284355243</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6116001393411359</v>
+        <v>0.6112523291790251</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>435043</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>399933</v>
+        <v>398729</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>473067</v>
+        <v>478976</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2290342649799665</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2105503837745979</v>
+        <v>0.209916335799756</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2490527839354465</v>
+        <v>0.2521635925410742</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>152</v>
@@ -2272,19 +2272,19 @@
         <v>157903</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>133635</v>
+        <v>134449</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>183962</v>
+        <v>182383</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1551543569548289</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1313084475124416</v>
+        <v>0.1321087841404064</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1807600870639927</v>
+        <v>0.1792082029449186</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>564</v>
@@ -2293,19 +2293,19 @@
         <v>592946</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>550569</v>
+        <v>545923</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>640201</v>
+        <v>638867</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2032598057741386</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1887330968818722</v>
+        <v>0.1871406353350268</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2194588383646321</v>
+        <v>0.2190015353558752</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>407384</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>371359</v>
+        <v>370745</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>445120</v>
+        <v>445387</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2144729940590268</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1955068915471364</v>
+        <v>0.1951839010354238</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2343394344101034</v>
+        <v>0.2344800725090282</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>38</v>
@@ -2343,19 +2343,19 @@
         <v>39279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>28963</v>
+        <v>28512</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>53892</v>
+        <v>53120</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03859485004390292</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02845903690042401</v>
+        <v>0.02801530362009131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.05295340085746189</v>
+        <v>0.05219542584763644</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>426</v>
@@ -2364,19 +2364,19 @@
         <v>446663</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>411104</v>
+        <v>406088</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>487810</v>
+        <v>489775</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.153114443821361</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1409251956178908</v>
+        <v>0.1392057322600731</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1672197519521752</v>
+        <v>0.1678930880290611</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>124196</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>103077</v>
+        <v>103000</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>148312</v>
+        <v>145928</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06538456189779561</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05426622588797394</v>
+        <v>0.05422568825220062</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07808073310035794</v>
+        <v>0.07682569298015275</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>21</v>
@@ -2414,19 +2414,19 @@
         <v>21171</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>12994</v>
+        <v>12928</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>32069</v>
+        <v>30594</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02080198706746964</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01276745341079473</v>
+        <v>0.01270274789301242</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03151107326533203</v>
+        <v>0.03006171051962376</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>144</v>
@@ -2435,19 +2435,19 @@
         <v>145366</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>123408</v>
+        <v>122699</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>170018</v>
+        <v>168814</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0498310536846556</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04230385146927557</v>
+        <v>0.04206063418448738</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05828147944218728</v>
+        <v>0.05786894510892693</v>
       </c>
     </row>
     <row r="28">
@@ -2779,19 +2779,19 @@
         <v>74062</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59466</v>
+        <v>60240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90871</v>
+        <v>90231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2762590554349604</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2218154503551788</v>
+        <v>0.2247006164807909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3389577726760841</v>
+        <v>0.3365728702451917</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -2800,19 +2800,19 @@
         <v>73672</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>61130</v>
+        <v>60279</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>86896</v>
+        <v>86926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4568116802899544</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3790415059957407</v>
+        <v>0.3737653614599192</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5388076141125008</v>
+        <v>0.5389945259793659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -2821,19 +2821,19 @@
         <v>147734</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>127022</v>
+        <v>127308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>169635</v>
+        <v>168590</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3440773817173833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2958375632888995</v>
+        <v>0.2965049174248899</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3950849965217421</v>
+        <v>0.3926519049297213</v>
       </c>
     </row>
     <row r="5">
@@ -2850,19 +2850,19 @@
         <v>86121</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70364</v>
+        <v>69821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101937</v>
+        <v>101058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3212413676696909</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2624668305614864</v>
+        <v>0.2604401974323491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.380235374402796</v>
+        <v>0.3769591840082682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -2871,19 +2871,19 @@
         <v>55924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43910</v>
+        <v>43535</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68027</v>
+        <v>68013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3467646281737491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2722691278344328</v>
+        <v>0.2699408420827943</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4218101845905577</v>
+        <v>0.4217222955268337</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -2892,19 +2892,19 @@
         <v>142045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121948</v>
+        <v>122970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>162489</v>
+        <v>164013</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3308282945285259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2840205778358177</v>
+        <v>0.2864017747102561</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.378442551620418</v>
+        <v>0.3819903089901219</v>
       </c>
     </row>
     <row r="6">
@@ -2921,19 +2921,19 @@
         <v>66788</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54312</v>
+        <v>53714</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83326</v>
+        <v>82000</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2491282127442255</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2025886749425965</v>
+        <v>0.200359150867155</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3108161336254019</v>
+        <v>0.3058681180207473</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -2942,19 +2942,19 @@
         <v>22467</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13411</v>
+        <v>13873</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>32345</v>
+        <v>32458</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1393110502379928</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08315412142820573</v>
+        <v>0.08602282184889108</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2005550195516447</v>
+        <v>0.2012567525588384</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>88</v>
@@ -2963,19 +2963,19 @@
         <v>89256</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72650</v>
+        <v>73023</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>105003</v>
+        <v>108018</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2078792075622798</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1692041717432962</v>
+        <v>0.170073251032017</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2445545505384644</v>
+        <v>0.2515776141161701</v>
       </c>
     </row>
     <row r="7">
@@ -2992,19 +2992,19 @@
         <v>41117</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30329</v>
+        <v>29415</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54926</v>
+        <v>53589</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1533713641511233</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1131324701179396</v>
+        <v>0.1097221732330887</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2048799180704429</v>
+        <v>0.199894955653847</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3013,19 +3013,19 @@
         <v>9211</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4762</v>
+        <v>4171</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17180</v>
+        <v>16575</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05711264129830362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02952770940455304</v>
+        <v>0.02586297772648438</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1065270570490288</v>
+        <v>0.1027769301994853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -3034,19 +3034,19 @@
         <v>50328</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38704</v>
+        <v>37268</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65774</v>
+        <v>64123</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.117215116191811</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09014196389336111</v>
+        <v>0.08679853960854889</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1531904677821115</v>
+        <v>0.1493447474598318</v>
       </c>
     </row>
     <row r="8">
@@ -3138,19 +3138,19 @@
         <v>153043</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>132841</v>
+        <v>133051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172485</v>
+        <v>171769</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3748392971886814</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.325360862662448</v>
+        <v>0.3258739857890697</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4224579376915791</v>
+        <v>0.4207036260037997</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>121</v>
@@ -3159,19 +3159,19 @@
         <v>136538</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>121143</v>
+        <v>119706</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>153826</v>
+        <v>153488</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5027926905746561</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4461016325282412</v>
+        <v>0.4408096524433864</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5664524740469729</v>
+        <v>0.5652079779807593</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>260</v>
@@ -3180,19 +3180,19 @@
         <v>289581</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>260159</v>
+        <v>262592</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>317560</v>
+        <v>316843</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4259492816347377</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.382672247840442</v>
+        <v>0.3862498979021927</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4671037870838877</v>
+        <v>0.4660495087777308</v>
       </c>
     </row>
     <row r="10">
@@ -3209,19 +3209,19 @@
         <v>109402</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91631</v>
+        <v>92469</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128794</v>
+        <v>129713</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2679518237144793</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2244260660859884</v>
+        <v>0.2264783147742138</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3154489352188465</v>
+        <v>0.3176985300227468</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -3230,19 +3230,19 @@
         <v>88724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>72651</v>
+        <v>73718</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104487</v>
+        <v>103993</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3267180110088994</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2675337214445677</v>
+        <v>0.271459502013256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3847650470259721</v>
+        <v>0.3829453703831978</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>184</v>
@@ -3251,19 +3251,19 @@
         <v>198125</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>174486</v>
+        <v>176201</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>224522</v>
+        <v>223487</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2914255186208081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2566540668649422</v>
+        <v>0.2591765715677636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3302530994931603</v>
+        <v>0.3287308703344974</v>
       </c>
     </row>
     <row r="11">
@@ -3280,19 +3280,19 @@
         <v>98658</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>81618</v>
+        <v>81196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>117191</v>
+        <v>119053</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2416365509143494</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1999027477616043</v>
+        <v>0.1988686719883268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2870298423368289</v>
+        <v>0.2915897560482228</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>31</v>
@@ -3301,19 +3301,19 @@
         <v>32620</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22801</v>
+        <v>22955</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44259</v>
+        <v>45237</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.120120852017979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08396226326927106</v>
+        <v>0.084530909539525</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1629796762972541</v>
+        <v>0.1665803102176889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -3322,19 +3322,19 @@
         <v>131278</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>110954</v>
+        <v>108603</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>155945</v>
+        <v>152155</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1930980532927152</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1632034123492433</v>
+        <v>0.1597460727769522</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2293812397460851</v>
+        <v>0.223807739272442</v>
       </c>
     </row>
     <row r="12">
@@ -3351,19 +3351,19 @@
         <v>47187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36506</v>
+        <v>36014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>61335</v>
+        <v>61816</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1155723281824899</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08941105252857159</v>
+        <v>0.08820591301369597</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1502242623066437</v>
+        <v>0.1514035806363795</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -3372,19 +3372,19 @@
         <v>13678</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7699</v>
+        <v>7356</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22997</v>
+        <v>23318</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05036844639846545</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02834957213238391</v>
+        <v>0.02708917562567394</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08468578225346553</v>
+        <v>0.08586670664762712</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>56</v>
@@ -3393,19 +3393,19 @@
         <v>60865</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>47294</v>
+        <v>45877</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>78924</v>
+        <v>77693</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08952714645173891</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06956484860372135</v>
+        <v>0.06748139902190668</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1160897907233853</v>
+        <v>0.1142800914178084</v>
       </c>
     </row>
     <row r="13">
@@ -3497,19 +3497,19 @@
         <v>104775</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86495</v>
+        <v>86664</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>123204</v>
+        <v>122699</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3279881038714738</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2707642753755979</v>
+        <v>0.2712927904475382</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3856762446293753</v>
+        <v>0.3840948168485042</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>109</v>
@@ -3518,19 +3518,19 @@
         <v>121615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>105664</v>
+        <v>106248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136101</v>
+        <v>136740</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5702090760904945</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4954170623219813</v>
+        <v>0.498159484185469</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6381254322954192</v>
+        <v>0.6411224443413861</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -3539,19 +3539,19 @@
         <v>226391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>202539</v>
+        <v>202108</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>251094</v>
+        <v>253901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4249628948239152</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3801894365931333</v>
+        <v>0.3793806884092055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4713327122902796</v>
+        <v>0.4766024341726662</v>
       </c>
     </row>
     <row r="15">
@@ -3568,19 +3568,19 @@
         <v>102508</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>84447</v>
+        <v>85653</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>119571</v>
+        <v>121950</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3208893984516769</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2643533135482355</v>
+        <v>0.2681264173175489</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3743033203755608</v>
+        <v>0.3817520699349869</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>43</v>
@@ -3589,19 +3589,19 @@
         <v>48108</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>36737</v>
+        <v>35555</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>61801</v>
+        <v>63162</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2255620884232229</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1722466002137107</v>
+        <v>0.1667039314748129</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2897630818419923</v>
+        <v>0.2961421571750396</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>134</v>
@@ -3610,19 +3610,19 @@
         <v>150616</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>128632</v>
+        <v>129234</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>172870</v>
+        <v>175235</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2827244704630757</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2414571970207381</v>
+        <v>0.2425868004009807</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3244978331703931</v>
+        <v>0.3289367459218549</v>
       </c>
     </row>
     <row r="16">
@@ -3639,19 +3639,19 @@
         <v>77027</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63057</v>
+        <v>61452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>94987</v>
+        <v>93834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.241123962481518</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1973931244342784</v>
+        <v>0.1923683714232279</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2973472924003642</v>
+        <v>0.2937371684929496</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>28</v>
@@ -3660,19 +3660,19 @@
         <v>30644</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21317</v>
+        <v>21543</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42422</v>
+        <v>42550</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1436789940181394</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09994762799702908</v>
+        <v>0.1010093198285233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1989030010066492</v>
+        <v>0.1995030545628284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>101</v>
@@ -3681,19 +3681,19 @@
         <v>107671</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>89633</v>
+        <v>90077</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127615</v>
+        <v>126194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2021112157340614</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1682516918701251</v>
+        <v>0.1690852863461631</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.239548085550279</v>
+        <v>0.2368806337859563</v>
       </c>
     </row>
     <row r="17">
@@ -3710,19 +3710,19 @@
         <v>35139</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24785</v>
+        <v>25215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49843</v>
+        <v>48490</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1099985351953312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07758811577870363</v>
+        <v>0.07893308200984117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1560295583976829</v>
+        <v>0.1517915610542356</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3731,19 +3731,19 @@
         <v>12914</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6775</v>
+        <v>6763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21898</v>
+        <v>23456</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06054984146814316</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03176646813736982</v>
+        <v>0.03170801528158578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1026696791168281</v>
+        <v>0.1099764512120378</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -3752,19 +3752,19 @@
         <v>48053</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35801</v>
+        <v>34573</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64095</v>
+        <v>63216</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09020141897894765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06720298273340396</v>
+        <v>0.06489818783027859</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1203146598944602</v>
+        <v>0.1186645911637141</v>
       </c>
     </row>
     <row r="18">
@@ -3856,19 +3856,19 @@
         <v>178155</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>158950</v>
+        <v>159393</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>200632</v>
+        <v>200627</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4303696488922198</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3839768913100027</v>
+        <v>0.3850477067157163</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4846682557915925</v>
+        <v>0.4846573400049004</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>171</v>
@@ -3877,19 +3877,19 @@
         <v>179448</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>163033</v>
+        <v>163173</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>197596</v>
+        <v>197404</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6008333384520431</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5458732685105384</v>
+        <v>0.5463395625365335</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6615972583711273</v>
+        <v>0.6609550709494815</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>341</v>
@@ -3898,19 +3898,19 @@
         <v>357602</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>329523</v>
+        <v>330294</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>385295</v>
+        <v>383327</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.501812187165752</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4624089599221575</v>
+        <v>0.4634915750599455</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5406721923632452</v>
+        <v>0.5379102824693159</v>
       </c>
     </row>
     <row r="20">
@@ -3927,19 +3927,19 @@
         <v>124581</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>106338</v>
+        <v>106010</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>145572</v>
+        <v>143404</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3009520166180375</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2568806680835262</v>
+        <v>0.2560905841573544</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3516596910842153</v>
+        <v>0.3464225017380759</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -3948,19 +3948,19 @@
         <v>87409</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70357</v>
+        <v>71541</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>102949</v>
+        <v>103361</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2926665954761891</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2355715483988926</v>
+        <v>0.2395375389182069</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3446977643994314</v>
+        <v>0.3460750532626405</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>206</v>
@@ -3969,19 +3969,19 @@
         <v>211990</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>187527</v>
+        <v>188799</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>237113</v>
+        <v>237610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.297479538000642</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2631501761879321</v>
+        <v>0.2649350893554165</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.332732925221602</v>
+        <v>0.3334311947648992</v>
       </c>
     </row>
     <row r="21">
@@ -3998,19 +3998,19 @@
         <v>69579</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54213</v>
+        <v>54234</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>85799</v>
+        <v>86017</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1680827101624975</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1309628616582321</v>
+        <v>0.1310139783493511</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2072656801547953</v>
+        <v>0.2077910366899153</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -4019,19 +4019,19 @@
         <v>20468</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12651</v>
+        <v>12361</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>31294</v>
+        <v>29786</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06853223549008476</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04235758559518332</v>
+        <v>0.04138653877106894</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1047781527981262</v>
+        <v>0.09973038140977712</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>89</v>
@@ -4040,19 +4040,19 @@
         <v>90047</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>73650</v>
+        <v>73041</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>109676</v>
+        <v>108666</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1263604019378115</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1033501417682226</v>
+        <v>0.1024967585792678</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.153905347859199</v>
+        <v>0.1524873759990287</v>
       </c>
     </row>
     <row r="22">
@@ -4069,19 +4069,19 @@
         <v>41642</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>29869</v>
+        <v>30112</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56486</v>
+        <v>56366</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1005956243272451</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07215541679042543</v>
+        <v>0.07274152794279845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.136454203948896</v>
+        <v>0.1361643103680417</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -4090,19 +4090,19 @@
         <v>11340</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6060</v>
+        <v>6267</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19411</v>
+        <v>18773</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03796783058168306</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02028869341992547</v>
+        <v>0.02098212265743052</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06499258719705603</v>
+        <v>0.06285565455007074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>48</v>
@@ -4111,19 +4111,19 @@
         <v>52982</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40994</v>
+        <v>40504</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70682</v>
+        <v>68918</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07434787289579455</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05752583417941807</v>
+        <v>0.0568378667965917</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09918581433546984</v>
+        <v>0.09670988116717566</v>
       </c>
     </row>
     <row r="23">
@@ -4215,19 +4215,19 @@
         <v>510034</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>474990</v>
+        <v>472170</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>552423</v>
+        <v>548610</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3617822983698981</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3369243874761784</v>
+        <v>0.3349238146320892</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.391850239626128</v>
+        <v>0.3891452306223581</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>468</v>
@@ -4236,19 +4236,19 @@
         <v>511274</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>477641</v>
+        <v>480256</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>544087</v>
+        <v>542976</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5411553852190817</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5055563721930764</v>
+        <v>0.5083239632860884</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5758852979706403</v>
+        <v>0.5747097191196137</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>938</v>
@@ -4257,19 +4257,19 @@
         <v>1021308</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>969701</v>
+        <v>976011</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1074909</v>
+        <v>1074938</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4337568027007391</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4118389440842612</v>
+        <v>0.4145186821185051</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4565215282962453</v>
+        <v>0.4565337661361022</v>
       </c>
     </row>
     <row r="25">
@@ -4286,19 +4286,19 @@
         <v>422611</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>384589</v>
+        <v>386819</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>455467</v>
+        <v>456287</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2997707597191967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2728002103554586</v>
+        <v>0.2743820747265497</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3230760885925671</v>
+        <v>0.323658080007605</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>261</v>
@@ -4307,19 +4307,19 @@
         <v>280166</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>252630</v>
+        <v>248544</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>310681</v>
+        <v>307348</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2965399510937738</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2673948379938029</v>
+        <v>0.2630695757241666</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3288383461414632</v>
+        <v>0.3253106702090587</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>660</v>
@@ -4328,19 +4328,19 @@
         <v>702777</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>654054</v>
+        <v>655081</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>751608</v>
+        <v>748802</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2984743787877689</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2777813142146201</v>
+        <v>0.2782174331727061</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3192130493643262</v>
+        <v>0.3180214286821</v>
       </c>
     </row>
     <row r="26">
@@ -4357,19 +4357,19 @@
         <v>312051</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>281707</v>
+        <v>281217</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>346264</v>
+        <v>345171</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2213472821162543</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1998230549181995</v>
+        <v>0.1994753415767997</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2456150540910238</v>
+        <v>0.2448401257567873</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>100</v>
@@ -4378,19 +4378,19 @@
         <v>106200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>88584</v>
+        <v>87239</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>127487</v>
+        <v>124792</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1124066350099222</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09376109102393444</v>
+        <v>0.09233802267837554</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1349383817380477</v>
+        <v>0.132084980066917</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>401</v>
@@ -4399,19 +4399,19 @@
         <v>418251</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>382917</v>
+        <v>383544</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>454443</v>
+        <v>455763</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1776342077933935</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1626273658721654</v>
+        <v>0.1628937690726787</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1930051082225177</v>
+        <v>0.1935656693411208</v>
       </c>
     </row>
     <row r="27">
@@ -4428,19 +4428,19 @@
         <v>165085</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>141703</v>
+        <v>139897</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>190275</v>
+        <v>189854</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1170996597946509</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1005137696213158</v>
+        <v>0.09923289041603606</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1349677486015581</v>
+        <v>0.1346690148114093</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>43</v>
@@ -4449,19 +4449,19 @@
         <v>47143</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>35151</v>
+        <v>34988</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>62685</v>
+        <v>64259</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04989802867722238</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0372051950439301</v>
+        <v>0.03703305947981651</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06634855794108845</v>
+        <v>0.06801460201838708</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>197</v>
@@ -4470,19 +4470,19 @@
         <v>212228</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>186078</v>
+        <v>182908</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>243736</v>
+        <v>240945</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09013461071809845</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07902859903019639</v>
+        <v>0.07768238623604969</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1035165682516743</v>
+        <v>0.102331135465485</v>
       </c>
     </row>
     <row r="28">
@@ -4814,19 +4814,19 @@
         <v>70218</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>56189</v>
+        <v>57086</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>85905</v>
+        <v>85452</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2935620152800919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2349124275403816</v>
+        <v>0.2386623647140323</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3591459116563779</v>
+        <v>0.3572536042087635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -4835,19 +4835,19 @@
         <v>72229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60518</v>
+        <v>60902</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>84259</v>
+        <v>85168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4397968598980086</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3684897324773127</v>
+        <v>0.3708305376270205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5130473949524011</v>
+        <v>0.5185834281522087</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>141</v>
@@ -4856,19 +4856,19 @@
         <v>142446</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123589</v>
+        <v>125628</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161778</v>
+        <v>162963</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3530935947596074</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3063505033030465</v>
+        <v>0.3114037316369936</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4010129124227436</v>
+        <v>0.4039494181854761</v>
       </c>
     </row>
     <row r="5">
@@ -4885,19 +4885,19 @@
         <v>86134</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>72338</v>
+        <v>70018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103718</v>
+        <v>100882</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3601024114903175</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3024274631882235</v>
+        <v>0.2927265158855091</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4336185617885889</v>
+        <v>0.4217620600214524</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -4906,19 +4906,19 @@
         <v>48253</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37579</v>
+        <v>37090</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>60072</v>
+        <v>59619</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2938092839315102</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2288140531935318</v>
+        <v>0.2258383520728526</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3657767507062168</v>
+        <v>0.363016521285279</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>133</v>
@@ -4927,19 +4927,19 @@
         <v>134386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>114984</v>
+        <v>116932</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>153556</v>
+        <v>153839</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3331147629409972</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2850212718864155</v>
+        <v>0.2898479372620272</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3806306329700748</v>
+        <v>0.3813323290077452</v>
       </c>
     </row>
     <row r="6">
@@ -4956,19 +4956,19 @@
         <v>57142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44117</v>
+        <v>45378</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69762</v>
+        <v>70856</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2388960690550885</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1844407325335387</v>
+        <v>0.1897148081733847</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2916552020619893</v>
+        <v>0.2962315496028008</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -4977,19 +4977,19 @@
         <v>28979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>21429</v>
+        <v>20575</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39628</v>
+        <v>39748</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1764492307905343</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1304817992958942</v>
+        <v>0.1252825832167856</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2412937068364854</v>
+        <v>0.2420224322377803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>86</v>
@@ -4998,19 +4998,19 @@
         <v>86121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>71442</v>
+        <v>69996</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>102774</v>
+        <v>103800</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2134742284185151</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1770890697966051</v>
+        <v>0.1735055541778478</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2547545226335518</v>
+        <v>0.2572980867490986</v>
       </c>
     </row>
     <row r="7">
@@ -5027,19 +5027,19 @@
         <v>25699</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16456</v>
+        <v>16495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37450</v>
+        <v>37186</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1074395041745021</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06879968798391622</v>
+        <v>0.06896029695577152</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1565684532676299</v>
+        <v>0.1554644098942261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -5048,19 +5048,19 @@
         <v>14772</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8983</v>
+        <v>8601</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23663</v>
+        <v>23384</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08994462537994689</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05469418950310734</v>
+        <v>0.05237060179269819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1440837297749858</v>
+        <v>0.1423820843222137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -5069,19 +5069,19 @@
         <v>40470</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28790</v>
+        <v>29651</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52801</v>
+        <v>53997</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1003174138808803</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07136516594344125</v>
+        <v>0.0734984122062534</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1308829123716153</v>
+        <v>0.1338471948440793</v>
       </c>
     </row>
     <row r="8">
@@ -5173,19 +5173,19 @@
         <v>171902</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>149644</v>
+        <v>152017</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>191965</v>
+        <v>193425</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4236023100941153</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3687534629849182</v>
+        <v>0.374601021452795</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4730413287099637</v>
+        <v>0.4766381832164734</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>142</v>
@@ -5194,19 +5194,19 @@
         <v>145354</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>128861</v>
+        <v>129868</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>163341</v>
+        <v>161454</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5329195037186709</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4724481420567335</v>
+        <v>0.476140187348027</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.598865277082257</v>
+        <v>0.5919448652298717</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>290</v>
@@ -5215,19 +5215,19 @@
         <v>317256</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>288817</v>
+        <v>292052</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>342340</v>
+        <v>346894</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4675428775471863</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4256322729237291</v>
+        <v>0.4303990490527125</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5045095188002298</v>
+        <v>0.5112202601900743</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>120179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>100462</v>
+        <v>100654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139842</v>
+        <v>139762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2961465610693902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2475600065022778</v>
+        <v>0.2480329533648639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3445996162975338</v>
+        <v>0.3444030433149591</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -5265,19 +5265,19 @@
         <v>82524</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67021</v>
+        <v>67950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98897</v>
+        <v>98533</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3025634441012378</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2457212391232216</v>
+        <v>0.249129250993077</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3625908567296738</v>
+        <v>0.3612568005975432</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>190</v>
@@ -5286,19 +5286,19 @@
         <v>202704</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>180142</v>
+        <v>176318</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>227086</v>
+        <v>227121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.298725857814491</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2654763838743548</v>
+        <v>0.2598414747813262</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3346581864697695</v>
+        <v>0.3347092480972696</v>
       </c>
     </row>
     <row r="11">
@@ -5315,19 +5315,19 @@
         <v>77945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63082</v>
+        <v>63009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93397</v>
+        <v>95449</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1920732252615496</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1554473389486514</v>
+        <v>0.155267124168838</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2301486436577899</v>
+        <v>0.2352063668884828</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -5336,19 +5336,19 @@
         <v>38056</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>28531</v>
+        <v>26960</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51574</v>
+        <v>49945</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1395256950895914</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1046059592411037</v>
+        <v>0.0988455193056761</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1890878898372993</v>
+        <v>0.1831161878757281</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>111</v>
@@ -5357,19 +5357,19 @@
         <v>116001</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>95867</v>
+        <v>97879</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>137488</v>
+        <v>136090</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1709514948415093</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1412798921164298</v>
+        <v>0.1442449207893452</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2026164617080172</v>
+        <v>0.2005574367255359</v>
       </c>
     </row>
     <row r="12">
@@ -5386,19 +5386,19 @@
         <v>35783</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25824</v>
+        <v>25313</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48500</v>
+        <v>48790</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08817790357494484</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06363525280752516</v>
+        <v>0.0623775945039521</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1195130512825141</v>
+        <v>0.1202281401462116</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -5407,19 +5407,19 @@
         <v>6816</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12976</v>
+        <v>13539</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02499135709049995</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01082282465251075</v>
+        <v>0.01080796877289365</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04757316616452339</v>
+        <v>0.04963997791049</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -5428,19 +5428,19 @@
         <v>42600</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31636</v>
+        <v>31082</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>59095</v>
+        <v>58134</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06277976979681342</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04662270514309449</v>
+        <v>0.0458063741635609</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08708900702446469</v>
+        <v>0.08567318168010472</v>
       </c>
     </row>
     <row r="13">
@@ -5532,19 +5532,19 @@
         <v>110422</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93296</v>
+        <v>90998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128834</v>
+        <v>129334</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3053261240897081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2579713900447432</v>
+        <v>0.2516172596040485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3562350715418725</v>
+        <v>0.3576187161113579</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -5553,19 +5553,19 @@
         <v>116351</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>98574</v>
+        <v>100126</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130840</v>
+        <v>132968</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4316896854128189</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3657330939244309</v>
+        <v>0.3714918710445901</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4854496657030611</v>
+        <v>0.4933443420105868</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>214</v>
@@ -5574,19 +5574,19 @@
         <v>226773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>204113</v>
+        <v>202116</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>253289</v>
+        <v>250081</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3592855736282662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.323384307043405</v>
+        <v>0.3202199547582382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4012955974508954</v>
+        <v>0.3962127237646345</v>
       </c>
     </row>
     <row r="15">
@@ -5603,19 +5603,19 @@
         <v>103415</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>86917</v>
+        <v>86754</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>123150</v>
+        <v>122152</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2859499066861393</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2403320680117035</v>
+        <v>0.2398801882439092</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3405184248365311</v>
+        <v>0.3377598867543126</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>91</v>
@@ -5624,19 +5624,19 @@
         <v>93351</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>79156</v>
+        <v>78591</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>109072</v>
+        <v>110072</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3463545863850749</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2936885943341649</v>
+        <v>0.2915935007868882</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4046837777530518</v>
+        <v>0.4083941353973606</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>185</v>
@@ -5645,19 +5645,19 @@
         <v>196766</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>175144</v>
+        <v>174895</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>222511</v>
+        <v>220924</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3117437608002475</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2774868527728828</v>
+        <v>0.2770934989681818</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3525324342304078</v>
+        <v>0.3500186627035111</v>
       </c>
     </row>
     <row r="16">
@@ -5674,19 +5674,19 @@
         <v>83370</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>67908</v>
+        <v>66960</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101834</v>
+        <v>100966</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2305242390324703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1877702397848412</v>
+        <v>0.1851480726578787</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2815790747473745</v>
+        <v>0.2791790283383824</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -5695,19 +5695,19 @@
         <v>39120</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29803</v>
+        <v>27566</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51038</v>
+        <v>51263</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1451445728801044</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1105765124239753</v>
+        <v>0.1022752775850691</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.189362323657335</v>
+        <v>0.1901999597787264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -5716,19 +5716,19 @@
         <v>122490</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102427</v>
+        <v>101233</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>144588</v>
+        <v>143422</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1940656291363203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1622784416674454</v>
+        <v>0.1603881817755584</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2290770151114566</v>
+        <v>0.2272288547099453</v>
       </c>
     </row>
     <row r="17">
@@ -5745,19 +5745,19 @@
         <v>64447</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>50931</v>
+        <v>51153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82083</v>
+        <v>82755</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1781997301916823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1408286493749108</v>
+        <v>0.141441150942499</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2269653834073065</v>
+        <v>0.2288231612732164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -5766,19 +5766,19 @@
         <v>20702</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12741</v>
+        <v>13338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>30734</v>
+        <v>31871</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07681115532200179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04727174322703285</v>
+        <v>0.04948847484735184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1140316687676909</v>
+        <v>0.1182491127132338</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>77</v>
@@ -5787,19 +5787,19 @@
         <v>85149</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>67244</v>
+        <v>69254</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>102173</v>
+        <v>104187</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.134905036435166</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1065375380604353</v>
+        <v>0.1097220022637332</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1618763432764628</v>
+        <v>0.1650679336560966</v>
       </c>
     </row>
     <row r="18">
@@ -5891,19 +5891,19 @@
         <v>209247</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>189028</v>
+        <v>189143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>229257</v>
+        <v>229191</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5294107250570166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.478253147094596</v>
+        <v>0.478546065497004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5800356203511118</v>
+        <v>0.5798696044151466</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>211</v>
@@ -5912,19 +5912,19 @@
         <v>224947</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>207015</v>
+        <v>208648</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>241863</v>
+        <v>241579</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6932590582531261</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6379967343220558</v>
+        <v>0.6430274801290095</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7453936473459233</v>
+        <v>0.7445176759130518</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>412</v>
@@ -5933,19 +5933,19 @@
         <v>434195</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>406938</v>
+        <v>407567</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>459970</v>
+        <v>462800</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6032794453136254</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5654083972989306</v>
+        <v>0.5662824948766214</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.639092324798248</v>
+        <v>0.6430245751875318</v>
       </c>
     </row>
     <row r="20">
@@ -5962,19 +5962,19 @@
         <v>84140</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69105</v>
+        <v>68897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100891</v>
+        <v>100144</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.21288023257201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1748400009352642</v>
+        <v>0.1743136409562933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.255260923753779</v>
+        <v>0.2533725079513408</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>52</v>
@@ -5983,19 +5983,19 @@
         <v>53538</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40772</v>
+        <v>41502</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68250</v>
+        <v>68031</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1649988510648819</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1256540931315256</v>
+        <v>0.1279044830131516</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2103371801195404</v>
+        <v>0.2096640231107756</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -6004,19 +6004,19 @@
         <v>137679</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>118692</v>
+        <v>118566</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>160136</v>
+        <v>160862</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1912935840717981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.164912733325583</v>
+        <v>0.1647385392949794</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2224962415824065</v>
+        <v>0.2235054616124539</v>
       </c>
     </row>
     <row r="21">
@@ -6033,19 +6033,19 @@
         <v>67035</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52444</v>
+        <v>54074</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>82808</v>
+        <v>82566</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1696033810904415</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1326867027699364</v>
+        <v>0.1368111970780799</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2095097790137058</v>
+        <v>0.2088980361727802</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -6054,19 +6054,19 @@
         <v>27648</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18626</v>
+        <v>19575</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38679</v>
+        <v>38936</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08520664969586937</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05740181655220829</v>
+        <v>0.06032846702268283</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1192033668449149</v>
+        <v>0.1199947632329696</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>95</v>
@@ -6075,19 +6075,19 @@
         <v>94683</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>78194</v>
+        <v>79121</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>114823</v>
+        <v>115481</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1315542998434811</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1086437398649152</v>
+        <v>0.1099329849979028</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1595376624857235</v>
+        <v>0.1604520443851225</v>
       </c>
     </row>
     <row r="22">
@@ -6104,19 +6104,19 @@
         <v>34823</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24789</v>
+        <v>24738</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47846</v>
+        <v>47010</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08810566128053191</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06271714324383132</v>
+        <v>0.06258861228119984</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.121054352205524</v>
+        <v>0.1189392876846177</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -6125,19 +6125,19 @@
         <v>18344</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11505</v>
+        <v>10994</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30137</v>
+        <v>27592</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05653544098612267</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0354561423905787</v>
+        <v>0.03388272563979644</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0928777243222057</v>
+        <v>0.08503509937957632</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -6146,19 +6146,19 @@
         <v>53168</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40157</v>
+        <v>41174</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67521</v>
+        <v>68154</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07387267077109531</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05579449315128475</v>
+        <v>0.05720860989546592</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09381524400755267</v>
+        <v>0.09469413417463732</v>
       </c>
     </row>
     <row r="23">
@@ -6250,19 +6250,19 @@
         <v>561790</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>528007</v>
+        <v>521231</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>600508</v>
+        <v>596824</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4007339139700258</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3766359891446943</v>
+        <v>0.3718026201139298</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4283518736623667</v>
+        <v>0.4257244723637947</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>543</v>
@@ -6271,19 +6271,19 @@
         <v>558881</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>528772</v>
+        <v>524991</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>591181</v>
+        <v>592932</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5420844534648691</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.512879946560297</v>
+        <v>0.5092126374945959</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5734136748692129</v>
+        <v>0.5751122681634404</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1057</v>
@@ -6292,19 +6292,19 @@
         <v>1120671</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1069390</v>
+        <v>1070445</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1172950</v>
+        <v>1175077</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4606340299360229</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4395559546821061</v>
+        <v>0.4399895528653998</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4821228598502546</v>
+        <v>0.4829969357018036</v>
       </c>
     </row>
     <row r="25">
@@ -6321,19 +6321,19 @@
         <v>393868</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>360441</v>
+        <v>358011</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>431103</v>
+        <v>429528</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2809524672297591</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2571083442521894</v>
+        <v>0.2553751541107379</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3075129004028994</v>
+        <v>0.3063894424652656</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>273</v>
@@ -6342,19 +6342,19 @@
         <v>277667</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>249941</v>
+        <v>247825</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>305585</v>
+        <v>307884</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2693218886269167</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2424288450875897</v>
+        <v>0.2403765759648341</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2964007658673046</v>
+        <v>0.2986305546924978</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>643</v>
@@ -6363,19 +6363,19 @@
         <v>671535</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>629362</v>
+        <v>627855</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>718442</v>
+        <v>718499</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2760237771126102</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2586894344553078</v>
+        <v>0.2580700962215677</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2953042000099326</v>
+        <v>0.295327636501885</v>
       </c>
     </row>
     <row r="26">
@@ -6392,19 +6392,19 @@
         <v>285493</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>255614</v>
+        <v>257256</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>315693</v>
+        <v>320324</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2036464170463528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1823333772297378</v>
+        <v>0.1835047672605604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2251889455626442</v>
+        <v>0.2284923999043774</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>133</v>
@@ -6413,19 +6413,19 @@
         <v>133802</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>112730</v>
+        <v>113871</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>157394</v>
+        <v>155327</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1297808020625806</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1093425202918732</v>
+        <v>0.1104489213563393</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1526637333823402</v>
+        <v>0.1506590067014791</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>405</v>
@@ -6434,19 +6434,19 @@
         <v>419294</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>381455</v>
+        <v>383853</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>458913</v>
+        <v>457638</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1723443865112019</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1567912516205335</v>
+        <v>0.1577767447062857</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1886289305712182</v>
+        <v>0.188104796544044</v>
       </c>
     </row>
     <row r="27">
@@ -6463,19 +6463,19 @@
         <v>160752</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>140068</v>
+        <v>134988</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>187263</v>
+        <v>185442</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1146672017538623</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.09991261708730485</v>
+        <v>0.09628929513237668</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1335779140856271</v>
+        <v>0.1322787498442992</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>58</v>
@@ -6484,19 +6484,19 @@
         <v>60635</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>45547</v>
+        <v>45418</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>76985</v>
+        <v>76611</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.05881285584563352</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04417771669259915</v>
+        <v>0.04405336619614954</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.07467108569209968</v>
+        <v>0.07430844096880686</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>206</v>
@@ -6505,19 +6505,19 @@
         <v>221387</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>193300</v>
+        <v>195080</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>249664</v>
+        <v>251263</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09099780644016507</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07945290794146928</v>
+        <v>0.0801845558224324</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1026203237546595</v>
+        <v>0.1032775773949083</v>
       </c>
     </row>
     <row r="28">
@@ -6849,19 +6849,19 @@
         <v>48389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35729</v>
+        <v>34502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65690</v>
+        <v>65159</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.250700474783759</v>
+        <v>0.2507004747837591</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1851127237215549</v>
+        <v>0.1787526251889251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3403380170777212</v>
+        <v>0.3375887544151832</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -6870,19 +6870,19 @@
         <v>47757</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38444</v>
+        <v>38538</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58595</v>
+        <v>59533</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3495934171511902</v>
+        <v>0.3495934171511901</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2814228413685958</v>
+        <v>0.282112243530907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4289337818831582</v>
+        <v>0.4358000321466503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -6891,19 +6891,19 @@
         <v>96145</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>78620</v>
+        <v>78783</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114604</v>
+        <v>113692</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2916851719712152</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2385175970120084</v>
+        <v>0.2390117856617747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3476847604495067</v>
+        <v>0.3449189349577815</v>
       </c>
     </row>
     <row r="5">
@@ -6920,19 +6920,19 @@
         <v>57357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44282</v>
+        <v>43723</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73535</v>
+        <v>71976</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2971675424018045</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2294213258193178</v>
+        <v>0.2265286612077458</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3809808732930952</v>
+        <v>0.3729081686453259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -6941,19 +6941,19 @@
         <v>47211</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37163</v>
+        <v>37645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>57382</v>
+        <v>56508</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3456023831379875</v>
+        <v>0.3456023831379874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2720437607817413</v>
+        <v>0.2755713427723739</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4200529437947154</v>
+        <v>0.4136597484799067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>128</v>
@@ -6962,19 +6962,19 @@
         <v>104569</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87234</v>
+        <v>86949</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121413</v>
+        <v>123210</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3172406359246935</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2646522469376952</v>
+        <v>0.2637867845761762</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3683440351000639</v>
+        <v>0.3737938752815513</v>
       </c>
     </row>
     <row r="6">
@@ -6991,19 +6991,19 @@
         <v>54246</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40641</v>
+        <v>40254</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>69321</v>
+        <v>68989</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2810461174748033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2105605031741649</v>
+        <v>0.2085562833180562</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3591496010946587</v>
+        <v>0.3574293912626629</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>36</v>
@@ -7012,19 +7012,19 @@
         <v>25217</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17042</v>
+        <v>17975</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>34221</v>
+        <v>34044</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1845959030821873</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1247560607370863</v>
+        <v>0.1315858858908961</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2505067233055416</v>
+        <v>0.2492117054851286</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>83</v>
@@ -7033,19 +7033,19 @@
         <v>79462</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64230</v>
+        <v>64182</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>96962</v>
+        <v>96900</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2410737722708402</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1948626777110416</v>
+        <v>0.1947167295528816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2941643269499855</v>
+        <v>0.2939742856376989</v>
       </c>
     </row>
     <row r="7">
@@ -7062,19 +7062,19 @@
         <v>33022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21920</v>
+        <v>20962</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48084</v>
+        <v>49847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1710858653396331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1135647923052573</v>
+        <v>0.1086033145095406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.249121431501221</v>
+        <v>0.2582573210798731</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -7083,19 +7083,19 @@
         <v>16421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10371</v>
+        <v>10680</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25933</v>
+        <v>25834</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.120208296628635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07591795218649336</v>
+        <v>0.0781829917448838</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.189834302724643</v>
+        <v>0.1891098415189343</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -7104,19 +7104,19 @@
         <v>49443</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36114</v>
+        <v>35093</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69879</v>
+        <v>68015</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.150000419833251</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1095628661645166</v>
+        <v>0.1064663325794755</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2120004616321776</v>
+        <v>0.2063446088826422</v>
       </c>
     </row>
     <row r="8">
@@ -7208,19 +7208,19 @@
         <v>122373</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>104619</v>
+        <v>103627</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>142859</v>
+        <v>142276</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3703370283465265</v>
+        <v>0.3703370283465264</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3166078370625803</v>
+        <v>0.3136056552316772</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4323333962615832</v>
+        <v>0.4305671281969852</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>125</v>
@@ -7229,19 +7229,19 @@
         <v>93377</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>80438</v>
+        <v>81090</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>105787</v>
+        <v>106126</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4297394922618195</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3701926339853805</v>
+        <v>0.3731915341254632</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.486851834884697</v>
+        <v>0.4884153201982737</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>230</v>
@@ -7250,19 +7250,19 @@
         <v>215750</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>191015</v>
+        <v>189741</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>239299</v>
+        <v>237805</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.393902461920948</v>
+        <v>0.3939024619209479</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3487440713804279</v>
+        <v>0.3464166492856657</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4368968999939356</v>
+        <v>0.4341692606598</v>
       </c>
     </row>
     <row r="10">
@@ -7279,19 +7279,19 @@
         <v>87334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>71448</v>
+        <v>70731</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105922</v>
+        <v>103893</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2642979467972639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2162218929694491</v>
+        <v>0.2140523393134724</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3205498695071174</v>
+        <v>0.3144096942923343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -7300,19 +7300,19 @@
         <v>73680</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62660</v>
+        <v>62772</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86494</v>
+        <v>87126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3390898109917369</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2883724492146647</v>
+        <v>0.2888900169668215</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3980637710979338</v>
+        <v>0.4009739634133935</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>180</v>
@@ -7321,19 +7321,19 @@
         <v>161014</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>142661</v>
+        <v>138228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>183394</v>
+        <v>182777</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2939684788158567</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2604621635451069</v>
+        <v>0.2523686029360738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.334830119259188</v>
+        <v>0.3337032808029311</v>
       </c>
     </row>
     <row r="11">
@@ -7350,19 +7350,19 @@
         <v>76923</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>61844</v>
+        <v>61080</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>94998</v>
+        <v>95626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2327900830818506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1871585505164051</v>
+        <v>0.1848462369348257</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2874910762156085</v>
+        <v>0.2893922899796499</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -7371,19 +7371,19 @@
         <v>32132</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23288</v>
+        <v>23692</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43043</v>
+        <v>42717</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.147877455759734</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.107174710408889</v>
+        <v>0.109035314437509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1980915605728166</v>
+        <v>0.1965933891562529</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>106</v>
@@ -7392,19 +7392,19 @@
         <v>109054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>91668</v>
+        <v>92968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>128822</v>
+        <v>130980</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1991045632077534</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1673621424926408</v>
+        <v>0.1697348530151038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2351947844309283</v>
+        <v>0.2391348274658848</v>
       </c>
     </row>
     <row r="12">
@@ -7421,19 +7421,19 @@
         <v>43808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30122</v>
+        <v>30295</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59412</v>
+        <v>60778</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1325749417743592</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0911575700095667</v>
+        <v>0.09168023096601019</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1797963937467931</v>
+        <v>0.1839328167064442</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -7442,19 +7442,19 @@
         <v>18099</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12125</v>
+        <v>11123</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28549</v>
+        <v>27147</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08329324098670959</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05580208544401373</v>
+        <v>0.05119229436874347</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1313883205211202</v>
+        <v>0.1249378326769658</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -7463,19 +7463,19 @@
         <v>61906</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>46821</v>
+        <v>48172</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>79106</v>
+        <v>81810</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.113024496055442</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08548230498474094</v>
+        <v>0.08794877357374312</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1444265302527661</v>
+        <v>0.1493639372197313</v>
       </c>
     </row>
     <row r="13">
@@ -7567,19 +7567,19 @@
         <v>79401</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64731</v>
+        <v>62971</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94912</v>
+        <v>96497</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3955259997675329</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3224473886801516</v>
+        <v>0.3136823850587673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4727880342573842</v>
+        <v>0.4806827020252388</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -7588,19 +7588,19 @@
         <v>85990</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>75102</v>
+        <v>74283</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97445</v>
+        <v>96619</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5635594844082417</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4922050470011855</v>
+        <v>0.4868377777649344</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6386378871876288</v>
+        <v>0.6332196922783652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -7609,19 +7609,19 @@
         <v>165391</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145150</v>
+        <v>146270</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>183679</v>
+        <v>186464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4680895046538807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4108021768684726</v>
+        <v>0.4139727674473866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5198492461569081</v>
+        <v>0.5277293111009427</v>
       </c>
     </row>
     <row r="15">
@@ -7638,19 +7638,19 @@
         <v>62257</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47558</v>
+        <v>47497</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>78718</v>
+        <v>82380</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3101215358450436</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2369041693041258</v>
+        <v>0.2366013902397721</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3921203542085274</v>
+        <v>0.4103618748476098</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -7659,19 +7659,19 @@
         <v>43004</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>32665</v>
+        <v>33433</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>52943</v>
+        <v>53575</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2818377352068824</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2140827408623898</v>
+        <v>0.2191104609974328</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3469805101444768</v>
+        <v>0.3511190913023283</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>97</v>
@@ -7680,19 +7680,19 @@
         <v>105260</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>86300</v>
+        <v>87185</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>124774</v>
+        <v>123973</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.29790747202199</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2442452341132908</v>
+        <v>0.2467504633976679</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3531358685080054</v>
+        <v>0.3508693173760363</v>
       </c>
     </row>
     <row r="16">
@@ -7709,19 +7709,19 @@
         <v>38450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26738</v>
+        <v>27004</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52593</v>
+        <v>53049</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.191534532171397</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1331911292272021</v>
+        <v>0.1345159964153542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2619842800873816</v>
+        <v>0.2642570586624667</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -7730,19 +7730,19 @@
         <v>15942</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10368</v>
+        <v>10683</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24092</v>
+        <v>24681</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1044802524683178</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06795182704498429</v>
+        <v>0.0700129070716482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1578971907630795</v>
+        <v>0.1617515080231261</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>50</v>
@@ -7751,19 +7751,19 @@
         <v>54392</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39974</v>
+        <v>41796</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71738</v>
+        <v>71509</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1539410509428259</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1131355226599127</v>
+        <v>0.1182908260978413</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2030336391834018</v>
+        <v>0.2023839841603028</v>
       </c>
     </row>
     <row r="17">
@@ -7780,19 +7780,19 @@
         <v>20641</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12239</v>
+        <v>12463</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31624</v>
+        <v>33610</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1028179322160264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06096904980376425</v>
+        <v>0.06208474784676386</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1575319099636279</v>
+        <v>0.1674225676755509</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -7801,19 +7801,19 @@
         <v>7648</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3686</v>
+        <v>4088</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13563</v>
+        <v>13919</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.05012252791655809</v>
+        <v>0.0501225279165581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02415532105089361</v>
+        <v>0.02679051750056629</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08888934324840708</v>
+        <v>0.09122308137447269</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -7822,19 +7822,19 @@
         <v>28288</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18990</v>
+        <v>19458</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>40671</v>
+        <v>41347</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.08006197238130325</v>
+        <v>0.08006197238130326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05374663582649021</v>
+        <v>0.05507092224780116</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1151081644548829</v>
+        <v>0.117021435034272</v>
       </c>
     </row>
     <row r="18">
@@ -7926,19 +7926,19 @@
         <v>143134</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>125079</v>
+        <v>126575</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>158773</v>
+        <v>159915</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.5846588125341929</v>
+        <v>0.5846588125341926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5109095830417348</v>
+        <v>0.5170184368729842</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6485368657053355</v>
+        <v>0.6532038710618516</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>179</v>
@@ -7947,19 +7947,19 @@
         <v>134706</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>121694</v>
+        <v>123355</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>146460</v>
+        <v>146488</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6575896623917371</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5940709096115049</v>
+        <v>0.6021794170184602</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7149670629303</v>
+        <v>0.7151063654863469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>308</v>
@@ -7968,19 +7968,19 @@
         <v>277840</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>255397</v>
+        <v>254515</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>299075</v>
+        <v>298386</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6178829593995214</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5679708401184437</v>
+        <v>0.5660112339637244</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6651067889279075</v>
+        <v>0.6635733146709193</v>
       </c>
     </row>
     <row r="20">
@@ -7997,19 +7997,19 @@
         <v>35163</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>25247</v>
+        <v>24424</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49590</v>
+        <v>47421</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1436282764034825</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1031244132343051</v>
+        <v>0.09976496155195902</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2025590741464923</v>
+        <v>0.1937014970519403</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -8018,19 +8018,19 @@
         <v>40883</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>31193</v>
+        <v>31632</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>51289</v>
+        <v>51241</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1995773322300035</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1522760078709466</v>
+        <v>0.154415148510196</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2503772711267686</v>
+        <v>0.250139481676764</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>89</v>
@@ -8039,19 +8039,19 @@
         <v>76046</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>61047</v>
+        <v>62455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>93463</v>
+        <v>92298</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1691162509902001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1357609675813674</v>
+        <v>0.1388924345529192</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.207850122311305</v>
+        <v>0.2052604055166749</v>
       </c>
     </row>
     <row r="21">
@@ -8068,19 +8068,19 @@
         <v>39480</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28517</v>
+        <v>28239</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52457</v>
+        <v>53098</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1612623897775425</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1164810029389944</v>
+        <v>0.1153465476828293</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2142682694921505</v>
+        <v>0.2168887279500715</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -8089,19 +8089,19 @@
         <v>16618</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10972</v>
+        <v>10295</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>26799</v>
+        <v>24874</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08112205225428895</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05356016317013882</v>
+        <v>0.0502586747164505</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1308253156003033</v>
+        <v>0.1214250980288421</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>56</v>
@@ -8110,19 +8110,19 @@
         <v>56097</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>42283</v>
+        <v>43594</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>70702</v>
+        <v>73245</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1247539115559062</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09403128142508645</v>
+        <v>0.09694825417049131</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1572320259045968</v>
+        <v>0.1628889956242421</v>
       </c>
     </row>
     <row r="22">
@@ -8139,19 +8139,19 @@
         <v>27040</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>17616</v>
+        <v>18371</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38461</v>
+        <v>38983</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1104505212847823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07195485253431236</v>
+        <v>0.07504152286797781</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1571012222246887</v>
+        <v>0.1592327118934713</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -8160,19 +8160,19 @@
         <v>12641</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7161</v>
+        <v>6981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21328</v>
+        <v>20587</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06171095312397043</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03495992969648661</v>
+        <v>0.03407733945418205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1041155813213674</v>
+        <v>0.1005003882645408</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -8181,19 +8181,19 @@
         <v>39682</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>28763</v>
+        <v>28179</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52526</v>
+        <v>53800</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08824687805437233</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06396459892768976</v>
+        <v>0.06266573946040244</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1168105255290403</v>
+        <v>0.1196445733620285</v>
       </c>
     </row>
     <row r="23">
@@ -8285,19 +8285,19 @@
         <v>393298</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>360123</v>
+        <v>357936</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>427428</v>
+        <v>424485</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.40587287650183</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.371636681205858</v>
+        <v>0.3693800320012117</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4410937388331229</v>
+        <v>0.4380564662603861</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>480</v>
@@ -8306,19 +8306,19 @@
         <v>361828</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>337437</v>
+        <v>337201</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>384333</v>
+        <v>387058</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5086696752265796</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4743798667191167</v>
+        <v>0.4740475461491043</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.540307605663949</v>
+        <v>0.5441376166362841</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>814</v>
@@ -8327,19 +8327,19 @@
         <v>755127</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>711852</v>
+        <v>711460</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>793484</v>
+        <v>798365</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4493888979572188</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4236355337508467</v>
+        <v>0.4234023743025748</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4722161928827699</v>
+        <v>0.4751207754069924</v>
       </c>
     </row>
     <row r="25">
@@ -8356,19 +8356,19 @@
         <v>242111</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>215705</v>
+        <v>211739</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>275693</v>
+        <v>273290</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2498516648358639</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2226016433285242</v>
+        <v>0.2185087867764121</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2845076135419248</v>
+        <v>0.2820278603955017</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>280</v>
@@ -8377,19 +8377,19 @@
         <v>204778</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185829</v>
+        <v>181095</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>226754</v>
+        <v>225482</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2878825821016478</v>
+        <v>0.2878825821016477</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2612447922463951</v>
+        <v>0.2545891243124226</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3187776497251338</v>
+        <v>0.3169897793127593</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>494</v>
@@ -8398,19 +8398,19 @@
         <v>446888</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>405517</v>
+        <v>410971</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>482252</v>
+        <v>485444</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2659509425588726</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2413298970458062</v>
+        <v>0.2445757526966062</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2869967505366838</v>
+        <v>0.2888959496596797</v>
       </c>
     </row>
     <row r="26">
@@ -8427,19 +8427,19 @@
         <v>209099</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>181892</v>
+        <v>182414</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>240121</v>
+        <v>239696</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2157840357139325</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.187707749054856</v>
+        <v>0.1882465254330329</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2477981157138803</v>
+        <v>0.2473597728355405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>118</v>
@@ -8448,19 +8448,19 @@
         <v>89908</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>75360</v>
+        <v>75457</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>106422</v>
+        <v>109309</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1263957632182221</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1059428414265034</v>
+        <v>0.1060796186881353</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1496114521408379</v>
+        <v>0.153670592601574</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>295</v>
@@ -8469,19 +8469,19 @@
         <v>299007</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>267349</v>
+        <v>265973</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>334903</v>
+        <v>333015</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1779441220975665</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1591040480904544</v>
+        <v>0.1582850023249018</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1993063594889404</v>
+        <v>0.1981830335138467</v>
       </c>
     </row>
     <row r="27">
@@ -8498,19 +8498,19 @@
         <v>124511</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>100225</v>
+        <v>103043</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>150246</v>
+        <v>151948</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1284914229483737</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1034298457797188</v>
+        <v>0.106337316505639</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1550497701633039</v>
+        <v>0.1568066398729216</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>66</v>
@@ -8519,19 +8519,19 @@
         <v>54809</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>43054</v>
+        <v>42847</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>70407</v>
+        <v>70297</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07705197945355062</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.06052661160242331</v>
+        <v>0.06023548558145923</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09897994294817831</v>
+        <v>0.09882635520827165</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>161</v>
@@ -8540,19 +8540,19 @@
         <v>179319</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>152349</v>
+        <v>152546</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>211621</v>
+        <v>211900</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1067160373863421</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09066576778549879</v>
+        <v>0.09078292128441365</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1259395941875019</v>
+        <v>0.1261053143540515</v>
       </c>
     </row>
     <row r="28">
